--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc102_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc102_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4740" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +587,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +634,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +789,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +836,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -967,10 +991,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1014,28 +1038,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1060,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1193,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1240,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1371,10 +1395,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1418,28 +1442,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1464,28 +1488,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1631,10 +1655,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1678,28 +1702,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1724,28 +1748,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1862,10 +1886,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1909,28 +1933,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1955,28 +1979,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2093,10 +2117,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2140,28 +2164,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2186,28 +2210,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2295,10 +2319,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2342,28 +2366,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2388,28 +2412,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2555,10 +2579,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2602,28 +2626,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2648,28 +2672,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2757,10 +2781,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2804,28 +2828,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2850,28 +2874,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2988,10 +3012,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3035,28 +3059,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3081,28 +3105,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3190,10 +3214,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3237,28 +3261,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3283,28 +3307,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3392,10 +3416,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3439,28 +3463,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3485,28 +3509,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3594,10 +3618,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3641,28 +3665,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3687,28 +3711,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3796,10 +3820,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3843,28 +3867,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3889,28 +3913,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3998,10 +4022,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4045,28 +4069,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4091,28 +4115,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4200,10 +4224,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4247,28 +4271,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4293,28 +4317,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4402,10 +4426,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4449,28 +4473,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4495,28 +4519,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4633,10 +4657,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4680,28 +4704,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4726,28 +4750,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4835,10 +4859,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4882,28 +4906,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4928,28 +4952,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5037,10 +5061,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5084,28 +5108,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5130,28 +5154,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5239,10 +5263,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5286,28 +5310,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5332,28 +5356,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5470,10 +5494,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5517,28 +5541,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5563,28 +5587,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5672,10 +5696,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5719,28 +5743,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5765,28 +5789,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5874,10 +5898,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5921,28 +5945,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5967,28 +5991,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6105,10 +6129,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6152,28 +6176,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6198,28 +6222,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6307,10 +6331,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6354,28 +6378,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6400,28 +6424,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6509,10 +6533,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6556,28 +6580,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6602,28 +6626,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6740,10 +6764,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6787,28 +6811,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6833,28 +6857,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6971,10 +6995,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7018,28 +7042,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7064,28 +7088,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7173,10 +7197,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7220,28 +7244,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7266,28 +7290,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7375,10 +7399,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7422,28 +7446,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7468,28 +7492,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7577,10 +7601,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7624,28 +7648,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7670,28 +7694,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7779,10 +7803,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7826,28 +7850,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7872,28 +7896,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8010,10 +8034,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8057,28 +8081,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8103,28 +8127,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8241,10 +8265,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8288,28 +8312,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8334,28 +8358,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8443,10 +8467,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8490,28 +8514,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8536,28 +8560,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8645,10 +8669,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8692,28 +8716,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8738,28 +8762,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8876,10 +8900,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8923,28 +8947,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8969,28 +8993,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9078,10 +9102,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="2" t="s">
+      <c r="J310" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9125,28 +9149,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
+      <c r="A312" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="2">
+      <c r="C312" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9171,28 +9195,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="2">
+      <c r="C314" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="2">
+      <c r="D314" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="2">
+      <c r="I314" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9251,10 +9275,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
